--- a/public/report/PlanReport.xlsx
+++ b/public/report/PlanReport.xlsx
@@ -57,19 +57,19 @@
     <t>แผนขนน้ำสุราขาว 70 ดีกรี ประจำเดือน สิงหาคม 2565</t>
   </si>
   <si>
-    <t xml:space="preserve">รายการขน Product A ประจำวันที่ 23 พ.ย. 2566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">จาก Customer Test 1 ไปยัง บริษัท มงคลสมัย จำกัด</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-11-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">test excel</t>
+    <t xml:space="preserve">รายการขน Product A2 New ประจำวันที่ 5 ก.พ. 2567 ถึง 8 ก.พ. 2567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">จาก Customer Test 2 ไปยัง บริษัท มงคลสมัย จำกัด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-02-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1233A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddd</t>
   </si>
   <si>
     <t xml:space="preserve">รวม</t>
@@ -700,10 +700,10 @@
       <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" t="s" s="9">
+      <c r="E5" t="s" s="8">
         <v>11</v>
       </c>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
